--- a/Findings.xlsx
+++ b/Findings.xlsx
@@ -9,11 +9,11 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="51600" windowHeight="17610" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="51600" windowHeight="17610"/>
   </bookViews>
   <sheets>
-    <sheet name="Checks" sheetId="1" r:id="rId1"/>
-    <sheet name="Findings" sheetId="2" r:id="rId2"/>
+    <sheet name="Variance in angle and shift" sheetId="1" r:id="rId1"/>
+    <sheet name="Precision and Time" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="67">
   <si>
     <t>Panel Coverage</t>
   </si>
@@ -43,9 +43,6 @@
   </si>
   <si>
     <t>max</t>
-  </si>
-  <si>
-    <t>Panel variance</t>
   </si>
   <si>
     <t>Shift variance 1</t>
@@ -152,20 +149,6 @@
     <t>no</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">Best case </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>≈ 66.09%</t>
-    </r>
-  </si>
-  <si>
     <t>[(0, 0), (0, 170), (85, 0)]</t>
   </si>
   <si>
@@ -194,6 +177,72 @@
   </si>
   <si>
     <t>&gt; 35000</t>
+  </si>
+  <si>
+    <t>Precision and Time</t>
+  </si>
+  <si>
+    <t>Landscape</t>
+  </si>
+  <si>
+    <t>Portrait</t>
+  </si>
+  <si>
+    <t>Panel Choice</t>
+  </si>
+  <si>
+    <t>Size</t>
+  </si>
+  <si>
+    <t>2 x 1 (L)</t>
+  </si>
+  <si>
+    <t>2 x 1 (P)</t>
+  </si>
+  <si>
+    <t>2.3 x 1 (L)</t>
+  </si>
+  <si>
+    <t>2.3 x 1 (P)</t>
+  </si>
+  <si>
+    <t>1.8 x 0.9 (L)</t>
+  </si>
+  <si>
+    <t>1.8 x 0.9 (P)</t>
+  </si>
+  <si>
+    <t>orientation</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Panel variance </t>
+  </si>
+  <si>
+    <t>x=0, y=2,3</t>
+  </si>
+  <si>
+    <t>x=1, y=4</t>
+  </si>
+  <si>
+    <t>x=1, y=1,2</t>
+  </si>
+  <si>
+    <t>x=0, y=1 and x=4, y=2</t>
+  </si>
+  <si>
+    <t>x=0, y=2</t>
+  </si>
+  <si>
+    <t>x=3, y=1</t>
+  </si>
+  <si>
+    <t>BEST RESULT</t>
+  </si>
+  <si>
+    <t>2 (Portrait)</t>
   </si>
 </sst>
 </file>
@@ -201,7 +250,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="169" formatCode="0.000%"/>
+    <numFmt numFmtId="164" formatCode="0.000%"/>
   </numFmts>
   <fonts count="7" x14ac:knownFonts="1">
     <font>
@@ -278,26 +327,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -308,6 +348,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -406,7 +459,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Findings!$O$32:$O$37</c:f>
+              <c:f>'Precision and Time'!$O$33:$O$38</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -433,7 +486,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Findings!$P$32:$P$37</c:f>
+              <c:f>'Precision and Time'!$P$33:$P$38</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -1205,16 +1258,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>139212</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>123092</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>256443</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>174381</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>454270</xdr:colOff>
-      <xdr:row>49</xdr:row>
-      <xdr:rowOff>82061</xdr:rowOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>60081</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1499,420 +1552,860 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:H27"/>
+  <dimension ref="B2:I52"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E27" sqref="E27"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="K23" sqref="K23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.28515625" customWidth="1"/>
-    <col min="6" max="6" width="11.85546875" customWidth="1"/>
-    <col min="7" max="7" width="11.7109375" customWidth="1"/>
+    <col min="2" max="2" width="20.85546875" customWidth="1"/>
+    <col min="3" max="3" width="11" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.28515625" customWidth="1"/>
+    <col min="7" max="7" width="11.28515625" customWidth="1"/>
+    <col min="8" max="8" width="11.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:8" ht="21" x14ac:dyDescent="0.35">
-      <c r="B2" s="11" t="s">
+    <row r="2" spans="2:9" ht="21" x14ac:dyDescent="0.35">
+      <c r="B2" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="12" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="3" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C2" s="8"/>
+    </row>
+    <row r="3" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B5" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" s="4"/>
+      <c r="D5">
+        <v>2500</v>
+      </c>
+      <c r="E5" s="1"/>
+    </row>
+    <row r="6" spans="2:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C6" t="s">
+        <v>56</v>
+      </c>
+      <c r="D6" t="s">
+        <v>4</v>
+      </c>
+      <c r="E6" t="s">
+        <v>5</v>
+      </c>
+      <c r="F6" s="7" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="5" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B5" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="C5">
-        <v>2500</v>
-      </c>
-      <c r="D5" s="1">
-        <f>MAX(C7:D11)/C5</f>
-        <v>0.63119999999999998</v>
-      </c>
-    </row>
-    <row r="6" spans="2:8" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="C6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D6" t="s">
-        <v>5</v>
-      </c>
-      <c r="E6" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="F6" s="10" t="s">
+      <c r="G6" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="G6" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="H6" s="10" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="H6" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="I6" s="7" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>3</v>
       </c>
-      <c r="C7">
+      <c r="C7" t="s">
+        <v>57</v>
+      </c>
+      <c r="D7">
         <v>1458</v>
       </c>
-      <c r="D7">
+      <c r="E7">
         <v>1578</v>
       </c>
-      <c r="E7" s="2">
-        <f>(D7-C7)/C7</f>
+      <c r="F7" s="2">
+        <f>(E7-D7)/D7</f>
         <v>8.2304526748971193E-2</v>
       </c>
     </row>
-    <row r="8" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C8">
+    <row r="8" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B8" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="C8" t="s">
+        <v>46</v>
+      </c>
+      <c r="D8">
         <v>1530.9</v>
       </c>
-      <c r="D8">
+      <c r="E8">
         <v>1578</v>
       </c>
-      <c r="E8" s="2">
-        <f t="shared" ref="E8:E11" si="0">(D8-C8)/C8</f>
+      <c r="F8" s="2">
+        <f t="shared" ref="F8:F15" si="0">(E8-D8)/D8</f>
         <v>3.0766215951401076E-2</v>
-      </c>
-      <c r="F8">
-        <v>1</v>
       </c>
       <c r="G8">
         <v>3</v>
       </c>
-      <c r="H8" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="9" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C9">
+      <c r="H8">
+        <v>1</v>
+      </c>
+      <c r="I8" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B9" s="15"/>
+      <c r="C9" t="s">
+        <v>47</v>
+      </c>
+      <c r="D9">
+        <v>1854.9</v>
+      </c>
+      <c r="E9">
+        <v>1936.6</v>
+      </c>
+      <c r="F9" s="2">
+        <f t="shared" si="0"/>
+        <v>4.4045501105180775E-2</v>
+      </c>
+      <c r="G9">
+        <v>3</v>
+      </c>
+      <c r="H9">
+        <v>2</v>
+      </c>
+      <c r="I9" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B10" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10" t="s">
+        <v>46</v>
+      </c>
+      <c r="D10">
         <v>1434</v>
       </c>
-      <c r="D9">
+      <c r="E10">
         <v>1578</v>
       </c>
-      <c r="E9" s="2">
+      <c r="F10" s="2">
         <f t="shared" si="0"/>
         <v>0.100418410041841</v>
       </c>
-      <c r="F9" t="s">
-        <v>24</v>
-      </c>
-      <c r="G9" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="10" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B10" t="s">
-        <v>8</v>
-      </c>
-      <c r="C10">
+      <c r="G10" t="s">
+        <v>20</v>
+      </c>
+      <c r="H10" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="11" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B11" s="15"/>
+      <c r="C11" t="s">
+        <v>47</v>
+      </c>
+      <c r="D11">
+        <v>1752</v>
+      </c>
+      <c r="E11">
+        <v>1894</v>
+      </c>
+      <c r="F11" s="2">
+        <f t="shared" si="0"/>
+        <v>8.1050228310502279E-2</v>
+      </c>
+      <c r="G11" t="s">
+        <v>20</v>
+      </c>
+      <c r="H11" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="12" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B12" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="C12" t="s">
+        <v>46</v>
+      </c>
+      <c r="D12">
         <v>1412.2</v>
       </c>
-      <c r="D10">
+      <c r="E12">
         <v>1570.9</v>
       </c>
-      <c r="E10" s="2">
+      <c r="F12" s="2">
         <f t="shared" si="0"/>
         <v>0.11237785016286647</v>
       </c>
-      <c r="F10" t="s">
-        <v>24</v>
-      </c>
-      <c r="G10" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="11" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B11" t="s">
-        <v>9</v>
-      </c>
-      <c r="C11">
+      <c r="G12" t="s">
+        <v>20</v>
+      </c>
+      <c r="H12" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="13" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B13" s="15"/>
+      <c r="C13" t="s">
+        <v>47</v>
+      </c>
+      <c r="D13">
+        <v>1782.5</v>
+      </c>
+      <c r="E13">
+        <v>1936.6</v>
+      </c>
+      <c r="F13" s="2">
+        <f t="shared" si="0"/>
+        <v>8.6451612903225755E-2</v>
+      </c>
+      <c r="G13" t="s">
+        <v>20</v>
+      </c>
+      <c r="H13" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="14" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B14" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C14" t="s">
+        <v>46</v>
+      </c>
+      <c r="D14">
         <v>1402.92</v>
       </c>
-      <c r="D11">
+      <c r="E14">
         <v>1530.9</v>
       </c>
-      <c r="E11" s="2">
+      <c r="F14" s="2">
         <f t="shared" si="0"/>
         <v>9.1224018475750582E-2</v>
       </c>
-      <c r="F11" t="s">
-        <v>24</v>
-      </c>
-      <c r="G11" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="12" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="E12" s="2"/>
-    </row>
-    <row r="13" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B13" s="5" t="s">
+      <c r="G14" t="s">
+        <v>20</v>
+      </c>
+      <c r="H14" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="15" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B15" s="15"/>
+      <c r="C15" t="s">
+        <v>47</v>
+      </c>
+      <c r="D15">
+        <v>1735.02</v>
+      </c>
+      <c r="E15">
+        <v>1854.9</v>
+      </c>
+      <c r="F15" s="2">
+        <f t="shared" si="0"/>
+        <v>6.9094304388422095E-2</v>
+      </c>
+      <c r="G15" t="s">
+        <v>20</v>
+      </c>
+      <c r="H15" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="16" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B16" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="C16" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="D16" s="5">
+        <v>1936.6</v>
+      </c>
+      <c r="E16" s="16">
+        <f>MAX(D7:E15,D16)/D5</f>
+        <v>0.77464</v>
+      </c>
+      <c r="F16" s="2"/>
+    </row>
+    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="F17" s="2"/>
+    </row>
+    <row r="18" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B18" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C13">
+      <c r="C18" s="4"/>
+      <c r="D18">
         <v>2374.7399999999998</v>
       </c>
-      <c r="D13" s="1">
-        <f>MAX(C15:D19)/C13</f>
-        <v>0.62663702131601773</v>
-      </c>
-      <c r="E13" s="2"/>
-    </row>
-    <row r="14" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="C14" t="s">
+      <c r="E18" s="1"/>
+      <c r="F18" s="2"/>
+    </row>
+    <row r="19" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="D19" t="s">
         <v>4</v>
       </c>
-      <c r="D14" t="s">
+      <c r="E19" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B15" t="s">
+    <row r="20" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B20" t="s">
         <v>3</v>
       </c>
-      <c r="C15">
+      <c r="C20" t="s">
+        <v>57</v>
+      </c>
+      <c r="D20">
         <v>1412</v>
       </c>
-      <c r="D15">
+      <c r="E20">
         <v>1476</v>
       </c>
-      <c r="E15" s="2">
-        <f>(D15-C15)/C15</f>
+      <c r="F20" s="2">
+        <f>(E20-D20)/D20</f>
         <v>4.5325779036827198E-2</v>
       </c>
     </row>
-    <row r="16" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B16" t="s">
+    <row r="21" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B21" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="C21" t="s">
+        <v>46</v>
+      </c>
+      <c r="D21">
+        <v>1423.98</v>
+      </c>
+      <c r="E21">
+        <v>1476.6</v>
+      </c>
+      <c r="F21" s="2">
+        <f t="shared" ref="F21:F28" si="1">(E21-D21)/D21</f>
+        <v>3.6952766190536307E-2</v>
+      </c>
+      <c r="G21">
+        <v>3</v>
+      </c>
+      <c r="H21">
+        <v>2</v>
+      </c>
+      <c r="I21" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="22" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B22" s="15"/>
+      <c r="C22" t="s">
+        <v>47</v>
+      </c>
+      <c r="D22">
+        <v>1681.56</v>
+      </c>
+      <c r="E22">
+        <v>1748</v>
+      </c>
+      <c r="F22" s="2">
+        <f t="shared" si="1"/>
+        <v>3.9510930326601523E-2</v>
+      </c>
+      <c r="G22">
+        <v>3</v>
+      </c>
+      <c r="H22">
+        <v>2</v>
+      </c>
+      <c r="I22" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="23" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B23" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="C16">
-        <v>1423.98</v>
-      </c>
-      <c r="D16">
-        <v>1476.6</v>
-      </c>
-      <c r="E16" s="2">
-        <f t="shared" ref="E16:E19" si="1">(D16-C16)/C16</f>
-        <v>3.6952766190536307E-2</v>
-      </c>
-      <c r="F16">
-        <v>2</v>
-      </c>
-      <c r="G16">
-        <v>3</v>
-      </c>
-      <c r="H16" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B17" t="s">
-        <v>7</v>
-      </c>
-      <c r="C17">
+      <c r="C23" t="s">
+        <v>46</v>
+      </c>
+      <c r="D23">
         <v>1404</v>
       </c>
-      <c r="D17">
+      <c r="E23">
         <v>1484</v>
       </c>
-      <c r="E17" s="2">
+      <c r="F23" s="2">
         <f t="shared" si="1"/>
         <v>5.6980056980056981E-2</v>
       </c>
-      <c r="F17" t="s">
+      <c r="G23" t="s">
         <v>25</v>
       </c>
-      <c r="G17" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B18" t="s">
-        <v>8</v>
-      </c>
-      <c r="C18">
+      <c r="H23" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="24" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B24" s="15"/>
+      <c r="C24" t="s">
+        <v>47</v>
+      </c>
+      <c r="D24">
+        <v>1682</v>
+      </c>
+      <c r="E24">
+        <v>1764</v>
+      </c>
+      <c r="F24" s="2">
+        <f t="shared" si="1"/>
+        <v>4.8751486325802618E-2</v>
+      </c>
+      <c r="G24" t="s">
+        <v>60</v>
+      </c>
+      <c r="H24" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="25" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B25" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="C25" t="s">
+        <v>46</v>
+      </c>
+      <c r="D25">
         <v>1405.3</v>
       </c>
-      <c r="D18">
+      <c r="E25">
         <v>1488.1</v>
       </c>
-      <c r="E18" s="2">
+      <c r="F25" s="2">
         <f t="shared" si="1"/>
         <v>5.8919803600654637E-2</v>
       </c>
-      <c r="F18" t="s">
-        <v>25</v>
-      </c>
-      <c r="G18" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B19" t="s">
-        <v>9</v>
-      </c>
-      <c r="C19">
+      <c r="G25" t="s">
+        <v>26</v>
+      </c>
+      <c r="H25" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="26" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B26" s="15"/>
+      <c r="C26" t="s">
+        <v>47</v>
+      </c>
+      <c r="D26">
+        <v>1729.6</v>
+      </c>
+      <c r="E26">
+        <v>1754.9</v>
+      </c>
+      <c r="F26" s="2">
+        <f t="shared" si="1"/>
+        <v>1.4627659574468191E-2</v>
+      </c>
+      <c r="G26" t="s">
+        <v>61</v>
+      </c>
+      <c r="H26" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="27" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B27" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C27" t="s">
+        <v>46</v>
+      </c>
+      <c r="D27">
         <v>1391.58</v>
       </c>
-      <c r="D19">
+      <c r="E27">
         <v>1425.6</v>
       </c>
-      <c r="E19" s="2">
+      <c r="F27" s="2">
         <f t="shared" si="1"/>
         <v>2.4447031431897543E-2</v>
       </c>
-      <c r="F19" t="s">
-        <v>28</v>
-      </c>
-      <c r="G19" t="s">
+      <c r="G27" t="s">
+        <v>26</v>
+      </c>
+      <c r="H27" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="20" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="E20" s="2"/>
-    </row>
-    <row r="21" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B21" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C21">
+    <row r="28" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B28" s="15"/>
+      <c r="C28" t="s">
+        <v>47</v>
+      </c>
+      <c r="D28">
+        <v>1660.5</v>
+      </c>
+      <c r="E28">
+        <v>1735.02</v>
+      </c>
+      <c r="F28" s="2">
+        <f t="shared" si="1"/>
+        <v>4.4878048780487796E-2</v>
+      </c>
+      <c r="G28" t="s">
+        <v>30</v>
+      </c>
+      <c r="H28" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="29" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B29" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="C29" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="D29" s="5">
+        <v>1800.9</v>
+      </c>
+      <c r="E29" s="16">
+        <f>MAX(D20:E28,D29)/D18</f>
+        <v>0.75835670431289326</v>
+      </c>
+      <c r="F29" s="2"/>
+    </row>
+    <row r="30" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="F30" s="2"/>
+    </row>
+    <row r="31" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B31" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C31" s="4"/>
+      <c r="D31">
         <v>6845</v>
       </c>
-      <c r="D21" s="1">
-        <f>MAX(C23:D27)/C21</f>
-        <v>0.61826150474799124</v>
-      </c>
-      <c r="E21" s="2"/>
-    </row>
-    <row r="22" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="C22" t="s">
+      <c r="F31" s="2"/>
+    </row>
+    <row r="32" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="D32" t="s">
         <v>4</v>
       </c>
-      <c r="D22" t="s">
+      <c r="E32" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="23" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B23" t="s">
+    <row r="33" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B33" t="s">
         <v>3</v>
       </c>
-      <c r="C23">
+      <c r="C33" t="s">
+        <v>57</v>
+      </c>
+      <c r="D33">
         <v>4054</v>
       </c>
-      <c r="D23">
+      <c r="E33">
         <v>4188</v>
       </c>
-      <c r="E23" s="2">
-        <f>(D23-C23)/C23</f>
+      <c r="F33" s="2">
+        <f>(E33-D33)/D33</f>
         <v>3.3053774050320672E-2</v>
       </c>
     </row>
-    <row r="24" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B24" t="s">
+    <row r="34" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B34" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="C34" t="s">
+        <v>46</v>
+      </c>
+      <c r="D34">
+        <v>4001.4</v>
+      </c>
+      <c r="E34">
+        <v>4188</v>
+      </c>
+      <c r="F34" s="2">
+        <f t="shared" ref="F34:F41" si="2">(E34-D34)/D34</f>
+        <v>4.6633678212625554E-2</v>
+      </c>
+      <c r="G34">
+        <v>3</v>
+      </c>
+      <c r="H34">
+        <v>1</v>
+      </c>
+      <c r="I34" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="35" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B35" s="15"/>
+      <c r="C35" t="s">
+        <v>47</v>
+      </c>
+      <c r="D35">
+        <v>4837.32</v>
+      </c>
+      <c r="E35">
+        <v>5066.8999999999996</v>
+      </c>
+      <c r="F35" s="2">
+        <f t="shared" si="2"/>
+        <v>4.746016389240322E-2</v>
+      </c>
+      <c r="G35">
+        <v>3</v>
+      </c>
+      <c r="H35">
+        <v>2</v>
+      </c>
+      <c r="I35" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="36" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B36" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="C24">
-        <v>4001.4</v>
-      </c>
-      <c r="D24">
-        <v>4188</v>
-      </c>
-      <c r="E24" s="2">
-        <f t="shared" ref="E24:E27" si="2">(D24-C24)/C24</f>
-        <v>4.6633678212625554E-2</v>
-      </c>
-      <c r="F24">
-        <v>1</v>
-      </c>
-      <c r="G24">
-        <v>3</v>
-      </c>
-      <c r="H24" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="25" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B25" t="s">
-        <v>7</v>
-      </c>
-      <c r="C25">
+      <c r="C36" t="s">
+        <v>46</v>
+      </c>
+      <c r="D36">
         <v>4080</v>
       </c>
-      <c r="D25">
+      <c r="E36">
         <v>4228</v>
       </c>
-      <c r="E25" s="2">
+      <c r="F36" s="2">
         <f t="shared" si="2"/>
         <v>3.6274509803921572E-2</v>
       </c>
-      <c r="F25" t="s">
+      <c r="G36" t="s">
         <v>32</v>
       </c>
-      <c r="G25" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="26" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B26" t="s">
-        <v>8</v>
-      </c>
-      <c r="C26">
+      <c r="H36" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="37" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B37" s="15"/>
+      <c r="C37" t="s">
+        <v>47</v>
+      </c>
+      <c r="D37">
+        <v>4852</v>
+      </c>
+      <c r="E37">
+        <v>5002</v>
+      </c>
+      <c r="F37" s="2">
+        <f t="shared" si="2"/>
+        <v>3.0915086562242376E-2</v>
+      </c>
+      <c r="G37" t="s">
+        <v>32</v>
+      </c>
+      <c r="H37" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="38" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B38" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="C38" t="s">
+        <v>46</v>
+      </c>
+      <c r="D38">
         <v>4050.3</v>
       </c>
-      <c r="D26">
+      <c r="E38">
         <v>4232</v>
       </c>
-      <c r="E26" s="2">
+      <c r="F38" s="2">
         <f t="shared" si="2"/>
         <v>4.4860874503123177E-2</v>
       </c>
-      <c r="F26" t="s">
+      <c r="G38" t="s">
+        <v>26</v>
+      </c>
+      <c r="H38" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="39" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B39" s="15"/>
+      <c r="C39" t="s">
+        <v>47</v>
+      </c>
+      <c r="D39">
+        <v>4933.5</v>
+      </c>
+      <c r="E39">
+        <v>5089.8999999999996</v>
+      </c>
+      <c r="F39" s="2">
+        <f t="shared" si="2"/>
+        <v>3.1701631701631629E-2</v>
+      </c>
+      <c r="G39" t="s">
         <v>32</v>
       </c>
-      <c r="G26" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="27" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B27" t="s">
-        <v>9</v>
-      </c>
-      <c r="C27">
+      <c r="H39" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="40" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B40" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C40" t="s">
+        <v>46</v>
+      </c>
+      <c r="D40">
         <v>3969</v>
       </c>
-      <c r="D27">
+      <c r="E40">
         <v>4105.08</v>
       </c>
-      <c r="E27" s="2">
+      <c r="F40" s="2">
         <f t="shared" si="2"/>
         <v>3.4285714285714267E-2</v>
       </c>
-      <c r="F27" t="s">
-        <v>31</v>
-      </c>
-      <c r="G27" t="s">
-        <v>34</v>
+      <c r="G40" t="s">
+        <v>33</v>
+      </c>
+      <c r="H40" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="41" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B41" s="15"/>
+      <c r="C41" t="s">
+        <v>47</v>
+      </c>
+      <c r="D41">
+        <v>4744.9799999999996</v>
+      </c>
+      <c r="E41">
+        <v>4913.46</v>
+      </c>
+      <c r="F41" s="2">
+        <f t="shared" si="2"/>
+        <v>3.5506998975759749E-2</v>
+      </c>
+      <c r="G41" t="s">
+        <v>64</v>
+      </c>
+      <c r="H41" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="42" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B42" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="C42" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="D42" s="5">
+        <v>5234.8</v>
+      </c>
+      <c r="E42" s="16">
+        <f>MAX(D33:E41,D42)/D31</f>
+        <v>0.76476260043827615</v>
+      </c>
+    </row>
+    <row r="45" spans="2:9" ht="21" x14ac:dyDescent="0.35">
+      <c r="B45" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="C45" s="8"/>
+    </row>
+    <row r="46" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B46" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="C46" s="4"/>
+    </row>
+    <row r="47" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B47" t="s">
+        <v>50</v>
+      </c>
+      <c r="C47" s="1">
+        <f>(2*1)/(2.02*1.5)</f>
+        <v>0.66006600660066006</v>
+      </c>
+    </row>
+    <row r="48" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B48" t="s">
+        <v>51</v>
+      </c>
+      <c r="C48" s="1">
+        <f>(2*1)/(2.5*1.02)</f>
+        <v>0.78431372549019618</v>
+      </c>
+    </row>
+    <row r="49" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B49" t="s">
+        <v>52</v>
+      </c>
+      <c r="C49" s="1">
+        <f>(2.3*1)/(2.32*1.5)</f>
+        <v>0.66091954022988508</v>
+      </c>
+    </row>
+    <row r="50" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B50" t="s">
+        <v>53</v>
+      </c>
+      <c r="C50" s="1">
+        <f>(2.3*1)/(2.8*1.02)</f>
+        <v>0.80532212885154064</v>
+      </c>
+    </row>
+    <row r="51" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B51" t="s">
+        <v>54</v>
+      </c>
+      <c r="C51" s="1">
+        <f>(1.8*0.9)/(1.82*1.4)</f>
+        <v>0.63579277864992156</v>
+      </c>
+    </row>
+    <row r="52" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B52" t="s">
+        <v>55</v>
+      </c>
+      <c r="C52" s="1">
+        <f>(1.8*0.9)/(2.3*0.92)</f>
+        <v>0.7655954631379962</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="12">
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="B34:B35"/>
+    <mergeCell ref="B36:B37"/>
+    <mergeCell ref="B38:B39"/>
+    <mergeCell ref="B40:B41"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="B23:B24"/>
+    <mergeCell ref="B25:B26"/>
+    <mergeCell ref="B27:B28"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -1920,10 +2413,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:R39"/>
+  <dimension ref="B2:R40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E30" sqref="E30"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3:F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1931,602 +2424,608 @@
     <col min="2" max="2" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B2" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C2" s="6" t="s">
+    <row r="2" spans="2:6" ht="21" x14ac:dyDescent="0.35">
+      <c r="B2" s="8" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="3" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B3" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="13" t="s">
+      <c r="F3" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E2" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="F2" s="6" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="3" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B3" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="C3" s="4">
+    </row>
+    <row r="4" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B4" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="C4" s="12">
         <v>1225</v>
       </c>
-      <c r="D3" s="3">
+      <c r="D4" s="3">
         <v>0</v>
       </c>
-      <c r="E3">
+      <c r="E4">
         <v>0.2</v>
-      </c>
-      <c r="F3">
-        <v>772.8</v>
-      </c>
-    </row>
-    <row r="4" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B4" s="9"/>
-      <c r="C4" s="4"/>
-      <c r="D4" s="3">
-        <v>1</v>
-      </c>
-      <c r="E4">
-        <v>0.3</v>
       </c>
       <c r="F4">
         <v>772.8</v>
       </c>
     </row>
     <row r="5" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B5" s="9"/>
-      <c r="C5" s="4"/>
+      <c r="B5" s="13"/>
+      <c r="C5" s="12"/>
       <c r="D5" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E5">
-        <v>0.7</v>
+        <v>0.3</v>
       </c>
       <c r="F5">
         <v>772.8</v>
       </c>
     </row>
     <row r="6" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B6" s="9"/>
-      <c r="C6" s="4"/>
+      <c r="B6" s="13"/>
+      <c r="C6" s="12"/>
       <c r="D6" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E6">
-        <v>1.2</v>
+        <v>0.7</v>
       </c>
       <c r="F6">
         <v>772.8</v>
       </c>
     </row>
     <row r="7" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B7" s="9"/>
-      <c r="C7" s="4"/>
+      <c r="B7" s="13"/>
+      <c r="C7" s="12"/>
       <c r="D7" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E7">
-        <v>2.1</v>
+        <v>1.2</v>
       </c>
       <c r="F7">
         <v>772.8</v>
       </c>
     </row>
     <row r="8" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B8" s="9"/>
-      <c r="C8" s="4"/>
+      <c r="B8" s="13"/>
+      <c r="C8" s="12"/>
       <c r="D8" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E8">
-        <v>3.1</v>
+        <v>2.1</v>
       </c>
       <c r="F8">
         <v>772.8</v>
       </c>
     </row>
     <row r="9" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B9" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="C9" s="4">
+      <c r="B9" s="13"/>
+      <c r="C9" s="12"/>
+      <c r="D9" s="3">
+        <v>5</v>
+      </c>
+      <c r="E9">
+        <v>3.1</v>
+      </c>
+      <c r="F9">
+        <v>772.8</v>
+      </c>
+    </row>
+    <row r="10" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B10" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="C10" s="12">
         <v>2500</v>
       </c>
-      <c r="D9" s="3">
+      <c r="D10" s="3">
         <v>0</v>
       </c>
-      <c r="E9">
+      <c r="E10">
         <v>0.4</v>
-      </c>
-      <c r="F9">
-        <v>1578</v>
-      </c>
-    </row>
-    <row r="10" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B10" s="9"/>
-      <c r="C10" s="4"/>
-      <c r="D10" s="3">
-        <v>1</v>
-      </c>
-      <c r="E10">
-        <v>0.6</v>
       </c>
       <c r="F10">
         <v>1578</v>
       </c>
     </row>
     <row r="11" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B11" s="9"/>
-      <c r="C11" s="4"/>
+      <c r="B11" s="13"/>
+      <c r="C11" s="12"/>
       <c r="D11" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E11">
-        <v>1.3</v>
+        <v>0.6</v>
       </c>
       <c r="F11">
         <v>1578</v>
       </c>
     </row>
     <row r="12" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B12" s="9"/>
-      <c r="C12" s="4"/>
+      <c r="B12" s="13"/>
+      <c r="C12" s="12"/>
       <c r="D12" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E12">
-        <v>2.5</v>
+        <v>1.3</v>
       </c>
       <c r="F12">
         <v>1578</v>
       </c>
     </row>
     <row r="13" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B13" s="9"/>
-      <c r="C13" s="4"/>
+      <c r="B13" s="13"/>
+      <c r="C13" s="12"/>
       <c r="D13" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E13">
-        <v>4</v>
+        <v>2.5</v>
       </c>
       <c r="F13">
         <v>1578</v>
       </c>
     </row>
     <row r="14" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B14" s="9"/>
-      <c r="C14" s="4"/>
+      <c r="B14" s="13"/>
+      <c r="C14" s="12"/>
       <c r="D14" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E14">
-        <v>6.3</v>
+        <v>4</v>
       </c>
       <c r="F14">
         <v>1578</v>
       </c>
     </row>
     <row r="15" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B15" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="C15" s="4">
+      <c r="B15" s="13"/>
+      <c r="C15" s="12"/>
+      <c r="D15" s="3">
+        <v>5</v>
+      </c>
+      <c r="E15">
+        <v>6.3</v>
+      </c>
+      <c r="F15">
+        <v>1578</v>
+      </c>
+    </row>
+    <row r="16" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B16" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="C16" s="12">
         <v>5625</v>
       </c>
-      <c r="D15" s="3">
+      <c r="D16" s="3">
         <v>0</v>
       </c>
-      <c r="E15">
+      <c r="E16">
         <v>0.8</v>
-      </c>
-      <c r="F15">
-        <v>3618</v>
-      </c>
-    </row>
-    <row r="16" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B16" s="9"/>
-      <c r="C16" s="4"/>
-      <c r="D16" s="3">
-        <v>1</v>
-      </c>
-      <c r="E16">
-        <v>1.4</v>
       </c>
       <c r="F16">
         <v>3618</v>
       </c>
     </row>
-    <row r="17" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B17" s="9"/>
-      <c r="C17" s="4"/>
+    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B17" s="13"/>
+      <c r="C17" s="12"/>
       <c r="D17" s="3">
+        <v>1</v>
+      </c>
+      <c r="E17">
+        <v>1.4</v>
+      </c>
+      <c r="F17">
+        <v>3618</v>
+      </c>
+    </row>
+    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B18" s="13"/>
+      <c r="C18" s="12"/>
+      <c r="D18" s="3">
         <v>2</v>
       </c>
-      <c r="E17">
+      <c r="E18">
         <v>3</v>
       </c>
-      <c r="F17">
+      <c r="F18">
         <v>3620.2</v>
       </c>
     </row>
-    <row r="18" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B18" s="9"/>
-      <c r="C18" s="4"/>
-      <c r="D18" s="3">
+    <row r="19" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B19" s="13"/>
+      <c r="C19" s="12"/>
+      <c r="D19" s="3">
         <v>3</v>
       </c>
-      <c r="E18">
+      <c r="E19">
         <v>5.5</v>
       </c>
-      <c r="F18">
+      <c r="F19">
         <v>3618</v>
       </c>
     </row>
-    <row r="19" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B19" s="9"/>
-      <c r="C19" s="4"/>
-      <c r="D19" s="3">
+    <row r="20" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B20" s="13"/>
+      <c r="C20" s="12"/>
+      <c r="D20" s="3">
         <v>4</v>
       </c>
-      <c r="E19">
+      <c r="E20">
         <v>9.1999999999999993</v>
       </c>
-      <c r="F19">
+      <c r="F20">
         <v>3634</v>
       </c>
     </row>
-    <row r="20" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B20" s="9"/>
-      <c r="C20" s="4"/>
-      <c r="D20" s="3">
+    <row r="21" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B21" s="13"/>
+      <c r="C21" s="12"/>
+      <c r="D21" s="3">
         <v>5</v>
       </c>
-      <c r="E20">
+      <c r="E21">
         <v>13.5</v>
       </c>
-      <c r="F20">
+      <c r="F21">
         <v>3632</v>
       </c>
     </row>
-    <row r="21" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B21" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="C21" s="4">
+    <row r="22" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B22" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="C22" s="12">
         <v>7225</v>
       </c>
-      <c r="D21" s="3">
+      <c r="D22" s="3">
         <v>0</v>
       </c>
-      <c r="E21">
+      <c r="E22">
         <v>1.1000000000000001</v>
-      </c>
-      <c r="F21">
-        <v>4672</v>
-      </c>
-    </row>
-    <row r="22" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B22" s="9"/>
-      <c r="C22" s="4"/>
-      <c r="D22" s="3">
-        <v>1</v>
-      </c>
-      <c r="E22">
-        <v>2</v>
       </c>
       <c r="F22">
         <v>4672</v>
       </c>
     </row>
-    <row r="23" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B23" s="9"/>
-      <c r="C23" s="4"/>
+    <row r="23" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B23" s="13"/>
+      <c r="C23" s="12"/>
       <c r="D23" s="3">
+        <v>1</v>
+      </c>
+      <c r="E23">
         <v>2</v>
-      </c>
-      <c r="E23">
-        <v>3.8</v>
       </c>
       <c r="F23">
         <v>4672</v>
       </c>
     </row>
-    <row r="24" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B24" s="9"/>
-      <c r="C24" s="4"/>
+    <row r="24" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B24" s="13"/>
+      <c r="C24" s="12"/>
       <c r="D24" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E24">
-        <v>7.2</v>
+        <v>3.8</v>
       </c>
       <c r="F24">
         <v>4672</v>
       </c>
     </row>
-    <row r="25" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B25" s="9"/>
-      <c r="C25" s="4"/>
+    <row r="25" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B25" s="13"/>
+      <c r="C25" s="12"/>
       <c r="D25" s="3">
+        <v>3</v>
+      </c>
+      <c r="E25">
+        <v>7.2</v>
+      </c>
+      <c r="F25">
+        <v>4672</v>
+      </c>
+    </row>
+    <row r="26" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B26" s="13"/>
+      <c r="C26" s="12"/>
+      <c r="D26" s="3">
         <v>4</v>
       </c>
-      <c r="E25">
+      <c r="E26">
         <v>11.8</v>
       </c>
-      <c r="F25">
+      <c r="F26">
         <v>4680.5</v>
       </c>
     </row>
-    <row r="26" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B26" s="9"/>
-      <c r="C26" s="4"/>
-      <c r="D26" s="3">
+    <row r="27" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B27" s="13"/>
+      <c r="C27" s="12"/>
+      <c r="D27" s="3">
         <v>5</v>
       </c>
-      <c r="E26">
+      <c r="E27">
         <v>18.2</v>
       </c>
-      <c r="F26">
+      <c r="F27">
         <v>4675.8999999999996</v>
       </c>
     </row>
-    <row r="27" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B27" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="C27" s="4">
+    <row r="28" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B28" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="C28" s="12">
         <v>10000</v>
       </c>
-      <c r="D27" s="3">
+      <c r="D28" s="3">
         <v>0</v>
       </c>
-      <c r="E27">
+      <c r="E28">
         <v>1.6</v>
-      </c>
-      <c r="F27">
-        <v>6502</v>
-      </c>
-    </row>
-    <row r="28" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B28" s="8"/>
-      <c r="C28" s="4"/>
-      <c r="D28" s="3">
-        <v>1</v>
-      </c>
-      <c r="E28">
-        <v>2.2999999999999998</v>
       </c>
       <c r="F28">
         <v>6502</v>
       </c>
     </row>
-    <row r="29" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B29" s="8"/>
-      <c r="C29" s="4"/>
+    <row r="29" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B29" s="14"/>
+      <c r="C29" s="12"/>
       <c r="D29" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E29">
-        <v>5.4</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="F29">
         <v>6502</v>
       </c>
     </row>
-    <row r="30" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B30" s="8"/>
-      <c r="C30" s="4"/>
+    <row r="30" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B30" s="14"/>
+      <c r="C30" s="12"/>
       <c r="D30" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E30">
-        <v>9.4</v>
+        <v>5.4</v>
       </c>
       <c r="F30">
         <v>6502</v>
       </c>
     </row>
-    <row r="31" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B31" s="8"/>
-      <c r="C31" s="4"/>
+    <row r="31" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B31" s="14"/>
+      <c r="C31" s="12"/>
       <c r="D31" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E31">
-        <v>15.8</v>
+        <v>9.4</v>
       </c>
       <c r="F31">
         <v>6502</v>
       </c>
     </row>
-    <row r="32" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B32" s="8"/>
-      <c r="C32" s="4"/>
+    <row r="32" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B32" s="14"/>
+      <c r="C32" s="12"/>
       <c r="D32" s="3">
+        <v>4</v>
+      </c>
+      <c r="E32">
+        <v>15.8</v>
+      </c>
+      <c r="F32">
+        <v>6502</v>
+      </c>
+    </row>
+    <row r="33" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B33" s="14"/>
+      <c r="C33" s="12"/>
+      <c r="D33" s="3">
         <v>5</v>
       </c>
-      <c r="E32">
+      <c r="E33">
         <v>23.5</v>
       </c>
-      <c r="F32">
+      <c r="F33">
         <v>6502.01</v>
       </c>
-      <c r="O32">
+      <c r="O33">
         <v>1225</v>
       </c>
-      <c r="P32">
+      <c r="P33">
         <v>5</v>
       </c>
-      <c r="R32" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="33" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B33" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="C33" s="4">
+      <c r="R33" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="34" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B34" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="C34" s="12">
         <v>22500</v>
       </c>
-      <c r="D33" s="3">
+      <c r="D34" s="3">
         <v>0</v>
       </c>
-      <c r="E33">
+      <c r="E34">
         <v>3.4</v>
-      </c>
-      <c r="F33">
-        <v>14632</v>
-      </c>
-      <c r="O33">
-        <v>2500</v>
-      </c>
-      <c r="P33">
-        <v>4</v>
-      </c>
-      <c r="R33" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="34" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B34" s="8"/>
-      <c r="C34" s="4"/>
-      <c r="D34" s="3">
-        <v>1</v>
-      </c>
-      <c r="E34">
-        <v>5.6</v>
       </c>
       <c r="F34">
         <v>14632</v>
       </c>
       <c r="O34">
-        <v>5625</v>
+        <v>2500</v>
       </c>
       <c r="P34">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="R34" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="35" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B35" s="8"/>
-      <c r="C35" s="4"/>
+      <c r="B35" s="14"/>
+      <c r="C35" s="12"/>
       <c r="D35" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E35">
-        <v>12</v>
+        <v>5.6</v>
       </c>
       <c r="F35">
         <v>14632</v>
       </c>
       <c r="O35">
-        <v>10000</v>
+        <v>5625</v>
       </c>
       <c r="P35">
+        <v>3</v>
+      </c>
+      <c r="R35" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="36" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B36" s="14"/>
+      <c r="C36" s="12"/>
+      <c r="D36" s="3">
         <v>2</v>
       </c>
-      <c r="R35" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="36" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B36" s="8"/>
-      <c r="C36" s="4"/>
-      <c r="D36" s="3">
-        <v>3</v>
-      </c>
       <c r="E36">
-        <v>21.1</v>
+        <v>12</v>
       </c>
       <c r="F36">
         <v>14632</v>
       </c>
       <c r="O36">
-        <v>22500</v>
+        <v>10000</v>
       </c>
       <c r="P36">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R36" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="37" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B37" s="8"/>
-      <c r="C37" s="4"/>
+      <c r="B37" s="14"/>
+      <c r="C37" s="12"/>
       <c r="D37" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E37">
-        <v>34.799999999999997</v>
+        <v>21.1</v>
       </c>
       <c r="F37">
         <v>14632</v>
       </c>
       <c r="O37">
-        <v>36000</v>
+        <v>22500</v>
       </c>
       <c r="P37">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R37" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="38" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B38" s="8"/>
-      <c r="C38" s="4"/>
+      <c r="B38" s="14"/>
+      <c r="C38" s="12"/>
       <c r="D38" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E38">
-        <v>53.3</v>
+        <v>34.799999999999997</v>
       </c>
       <c r="F38">
         <v>14632</v>
       </c>
-    </row>
-    <row r="39" spans="2:18" ht="54" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B39" s="14" t="s">
-        <v>38</v>
-      </c>
-      <c r="C39" s="7">
+      <c r="O38">
         <v>36000</v>
       </c>
+      <c r="P38">
+        <v>0</v>
+      </c>
+      <c r="R38" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="39" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B39" s="14"/>
+      <c r="C39" s="12"/>
       <c r="D39" s="3">
+        <v>5</v>
+      </c>
+      <c r="E39">
+        <v>53.3</v>
+      </c>
+      <c r="F39">
+        <v>14632</v>
+      </c>
+    </row>
+    <row r="40" spans="2:18" ht="54" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B40" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="C40" s="6">
+        <v>36000</v>
+      </c>
+      <c r="D40" s="3">
         <v>0</v>
       </c>
-      <c r="E39">
+      <c r="E40">
         <v>5.6</v>
       </c>
-      <c r="F39">
+      <c r="F40">
         <v>23614</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="C9:C14"/>
-    <mergeCell ref="B3:B8"/>
-    <mergeCell ref="C3:C8"/>
-    <mergeCell ref="C33:C38"/>
-    <mergeCell ref="B33:B38"/>
-    <mergeCell ref="B15:B20"/>
-    <mergeCell ref="C15:C20"/>
-    <mergeCell ref="B27:B32"/>
-    <mergeCell ref="C27:C32"/>
-    <mergeCell ref="B21:B26"/>
-    <mergeCell ref="C21:C26"/>
-    <mergeCell ref="B9:B14"/>
+    <mergeCell ref="C10:C15"/>
+    <mergeCell ref="B4:B9"/>
+    <mergeCell ref="C4:C9"/>
+    <mergeCell ref="C34:C39"/>
+    <mergeCell ref="B34:B39"/>
+    <mergeCell ref="B16:B21"/>
+    <mergeCell ref="C16:C21"/>
+    <mergeCell ref="B28:B33"/>
+    <mergeCell ref="C28:C33"/>
+    <mergeCell ref="B22:B27"/>
+    <mergeCell ref="C22:C27"/>
+    <mergeCell ref="B10:B15"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>